--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B12E7AC-9A5C-4B5D-94D0-FC22F3036AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB0981-3C5B-4B09-BCC0-EE81D38B821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{7467F83C-1618-4211-B3D6-8E0451A3DBF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{7467F83C-1618-4211-B3D6-8E0451A3DBF2}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="uz_pattern" sheetId="6" r:id="rId4"/>
     <sheet name="ru_pattern" sheetId="5" r:id="rId5"/>
     <sheet name="en_pattern" sheetId="4" r:id="rId6"/>
+    <sheet name="all" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13852" uniqueCount="13229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13914" uniqueCount="13229">
   <si>
     <t>abu</t>
   </si>
@@ -108480,15 +108481,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B726A0D5-8D0F-4F94-B24F-62A9C133BD3C}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -108496,7 +108497,7 @@
         <v>13162</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>23</v>
       </c>
@@ -108507,7 +108508,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>24</v>
       </c>
@@ -108518,7 +108519,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>15</v>
       </c>
@@ -108529,7 +108530,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>12</v>
       </c>
@@ -108540,7 +108541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>29</v>
       </c>
@@ -108551,7 +108552,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>16</v>
       </c>
@@ -108562,7 +108563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>13</v>
       </c>
@@ -108572,8 +108573,11 @@
       <c r="C8">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>28</v>
       </c>
@@ -108584,7 +108588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>25</v>
       </c>
@@ -108595,7 +108599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>20</v>
       </c>
@@ -108606,7 +108610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>31</v>
       </c>
@@ -108617,7 +108621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>21</v>
       </c>
@@ -108628,7 +108632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>22</v>
       </c>
@@ -108639,7 +108643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>11</v>
       </c>
@@ -108650,7 +108654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>27</v>
       </c>
@@ -108837,7 +108841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -108848,7 +108852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -108856,7 +108860,7 @@
         <v>13226</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -108864,7 +108868,7 @@
         <v>13164</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>47</v>
       </c>
@@ -108875,7 +108879,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>46</v>
       </c>
@@ -108886,7 +108890,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>41</v>
       </c>
@@ -108897,7 +108901,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>42</v>
       </c>
@@ -108908,7 +108912,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>49</v>
       </c>
@@ -108918,8 +108922,11 @@
       <c r="C40">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>45</v>
       </c>
@@ -108930,7 +108937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>43</v>
       </c>
@@ -108941,7 +108948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>38</v>
       </c>
@@ -108952,7 +108959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>40</v>
       </c>
@@ -108963,7 +108970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>48</v>
       </c>
@@ -108974,7 +108981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>36</v>
       </c>
@@ -108985,7 +108992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>37</v>
       </c>
@@ -108996,7 +109003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>39</v>
       </c>
@@ -109007,7 +109014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>44</v>
       </c>
@@ -109018,7 +109025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>50</v>
       </c>
@@ -109029,7 +109036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>51</v>
       </c>
@@ -109040,7 +109047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>52</v>
       </c>
@@ -109048,7 +109055,7 @@
         <v>13227</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>53</v>
       </c>
@@ -109056,7 +109063,7 @@
         <v>13165</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>59</v>
       </c>
@@ -109067,7 +109074,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>57</v>
       </c>
@@ -109078,7 +109085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>56</v>
       </c>
@@ -109088,8 +109095,11 @@
       <c r="C56">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>58</v>
       </c>
@@ -109100,7 +109110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>60</v>
       </c>
@@ -109111,7 +109121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>54</v>
       </c>
@@ -109122,7 +109132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>55</v>
       </c>
@@ -109133,7 +109143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>61</v>
       </c>
@@ -109144,7 +109154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>62</v>
       </c>
@@ -109162,15 +109172,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF0E5DB-E9DC-4DD6-A373-26E08A8FFF87}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:C61"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -109178,7 +109188,7 @@
         <v>13162</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>23</v>
       </c>
@@ -109189,7 +109199,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>24</v>
       </c>
@@ -109200,7 +109210,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>28</v>
       </c>
@@ -109211,7 +109221,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>15</v>
       </c>
@@ -109222,7 +109232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>12</v>
       </c>
@@ -109233,7 +109243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>29</v>
       </c>
@@ -109244,7 +109254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>22</v>
       </c>
@@ -109255,7 +109265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>31</v>
       </c>
@@ -109266,7 +109276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>20</v>
       </c>
@@ -109276,8 +109286,11 @@
       <c r="C10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>13</v>
       </c>
@@ -109288,7 +109301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>21</v>
       </c>
@@ -109299,7 +109312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>27</v>
       </c>
@@ -109310,7 +109323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>25</v>
       </c>
@@ -109321,7 +109334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>16</v>
       </c>
@@ -109332,7 +109345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -109519,7 +109532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -109530,7 +109543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -109538,7 +109551,7 @@
         <v>13223</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -109546,7 +109559,7 @@
         <v>13164</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>46</v>
       </c>
@@ -109557,7 +109570,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>49</v>
       </c>
@@ -109568,7 +109581,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>47</v>
       </c>
@@ -109579,7 +109592,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>41</v>
       </c>
@@ -109590,7 +109603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>42</v>
       </c>
@@ -109600,8 +109613,11 @@
       <c r="C40">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>45</v>
       </c>
@@ -109612,7 +109628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>48</v>
       </c>
@@ -109623,7 +109639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>38</v>
       </c>
@@ -109634,7 +109650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>40</v>
       </c>
@@ -109645,7 +109661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>39</v>
       </c>
@@ -109656,7 +109672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>50</v>
       </c>
@@ -109667,7 +109683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>51</v>
       </c>
@@ -109678,7 +109694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>36</v>
       </c>
@@ -109689,7 +109705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>37</v>
       </c>
@@ -109700,7 +109716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>43</v>
       </c>
@@ -109711,7 +109727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>44</v>
       </c>
@@ -109722,7 +109738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>52</v>
       </c>
@@ -109730,7 +109746,7 @@
         <v>13224</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>53</v>
       </c>
@@ -109738,7 +109754,7 @@
         <v>13165</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>59</v>
       </c>
@@ -109749,7 +109765,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>56</v>
       </c>
@@ -109760,7 +109776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>60</v>
       </c>
@@ -109771,7 +109787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>58</v>
       </c>
@@ -109781,8 +109797,11 @@
       <c r="C57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -109793,7 +109812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>61</v>
       </c>
@@ -109804,7 +109823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>54</v>
       </c>
@@ -109815,7 +109834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>55</v>
       </c>
@@ -109826,7 +109845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>62</v>
       </c>
@@ -109844,15 +109863,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E967C5C9-09B5-49EC-9879-780EA8D07084}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -109860,7 +109879,7 @@
         <v>13162</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>23</v>
       </c>
@@ -109871,7 +109890,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>29</v>
       </c>
@@ -109882,7 +109901,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>25</v>
       </c>
@@ -109893,7 +109912,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>24</v>
       </c>
@@ -109904,7 +109923,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>21</v>
       </c>
@@ -109915,7 +109934,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>28</v>
       </c>
@@ -109926,7 +109945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>27</v>
       </c>
@@ -109937,7 +109956,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>15</v>
       </c>
@@ -109948,7 +109967,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>12</v>
       </c>
@@ -109959,7 +109978,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>13</v>
       </c>
@@ -109970,7 +109989,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>20</v>
       </c>
@@ -109981,7 +110000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>22</v>
       </c>
@@ -109992,7 +110011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -110003,7 +110022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>7</v>
       </c>
@@ -110013,8 +110032,11 @@
       <c r="C15">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -110201,7 +110223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -110212,7 +110234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -110220,7 +110242,7 @@
         <v>13163</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -110228,7 +110250,7 @@
         <v>13164</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>47</v>
       </c>
@@ -110239,7 +110261,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>46</v>
       </c>
@@ -110250,7 +110272,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>45</v>
       </c>
@@ -110261,7 +110283,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>49</v>
       </c>
@@ -110272,7 +110294,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>41</v>
       </c>
@@ -110283,7 +110305,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>42</v>
       </c>
@@ -110294,7 +110316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>48</v>
       </c>
@@ -110304,8 +110326,11 @@
       <c r="C42">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>43</v>
       </c>
@@ -110316,7 +110341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>39</v>
       </c>
@@ -110327,7 +110352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>38</v>
       </c>
@@ -110338,7 +110363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>40</v>
       </c>
@@ -110349,7 +110374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>44</v>
       </c>
@@ -110360,7 +110385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>37</v>
       </c>
@@ -110371,7 +110396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>50</v>
       </c>
@@ -110382,7 +110407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>36</v>
       </c>
@@ -110393,7 +110418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>51</v>
       </c>
@@ -110404,7 +110429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>52</v>
       </c>
@@ -110412,7 +110437,7 @@
         <v>13163</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>53</v>
       </c>
@@ -110420,7 +110445,7 @@
         <v>13165</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>59</v>
       </c>
@@ -110431,7 +110456,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>58</v>
       </c>
@@ -110442,7 +110467,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>57</v>
       </c>
@@ -110453,7 +110478,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -110464,7 +110489,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>55</v>
       </c>
@@ -110475,7 +110500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>60</v>
       </c>
@@ -110485,8 +110510,11 @@
       <c r="C59">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>61</v>
       </c>
@@ -110497,7 +110525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>54</v>
       </c>
@@ -110508,7 +110536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>62</v>
       </c>
@@ -110522,4 +110550,630 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A579E05D-0777-4113-9735-FB7894558B2D}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13195</v>
+      </c>
+      <c r="C2">
+        <v>1417</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13195</v>
+      </c>
+      <c r="F2">
+        <v>575</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13195</v>
+      </c>
+      <c r="I2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13196</v>
+      </c>
+      <c r="C3">
+        <v>634</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13196</v>
+      </c>
+      <c r="F3">
+        <v>400</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13201</v>
+      </c>
+      <c r="I3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13187</v>
+      </c>
+      <c r="C4">
+        <v>434</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13200</v>
+      </c>
+      <c r="F4">
+        <v>248</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13197</v>
+      </c>
+      <c r="I4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13184</v>
+      </c>
+      <c r="C5">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13187</v>
+      </c>
+      <c r="F5">
+        <v>111</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13196</v>
+      </c>
+      <c r="I5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13201</v>
+      </c>
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13184</v>
+      </c>
+      <c r="F6">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13193</v>
+      </c>
+      <c r="I6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13188</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13201</v>
+      </c>
+      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13200</v>
+      </c>
+      <c r="I7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13185</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13194</v>
+      </c>
+      <c r="F8">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13199</v>
+      </c>
+      <c r="I8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13203</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13187</v>
+      </c>
+      <c r="I9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13192</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13184</v>
+      </c>
+      <c r="I10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13185</v>
+      </c>
+      <c r="I11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13192</v>
+      </c>
+      <c r="I12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13194</v>
+      </c>
+      <c r="I13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13183</v>
+      </c>
+      <c r="I14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13179</v>
+      </c>
+      <c r="I15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13216</v>
+      </c>
+      <c r="C17">
+        <v>351</v>
+      </c>
+      <c r="D17">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13215</v>
+      </c>
+      <c r="F17">
+        <v>365</v>
+      </c>
+      <c r="G17">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13216</v>
+      </c>
+      <c r="I17">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13215</v>
+      </c>
+      <c r="C18">
+        <v>309</v>
+      </c>
+      <c r="D18">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13218</v>
+      </c>
+      <c r="F18">
+        <v>191</v>
+      </c>
+      <c r="G18">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13215</v>
+      </c>
+      <c r="I18">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13210</v>
+      </c>
+      <c r="C19">
+        <v>259</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13216</v>
+      </c>
+      <c r="F19">
+        <v>128</v>
+      </c>
+      <c r="G19">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13214</v>
+      </c>
+      <c r="I19">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13211</v>
+      </c>
+      <c r="C20">
+        <v>126</v>
+      </c>
+      <c r="D20">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13210</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="G20">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13218</v>
+      </c>
+      <c r="I20">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13218</v>
+      </c>
+      <c r="C21">
+        <v>82</v>
+      </c>
+      <c r="D21">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13211</v>
+      </c>
+      <c r="F21">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13210</v>
+      </c>
+      <c r="I21">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="G22">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13211</v>
+      </c>
+      <c r="I22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="G23">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13217</v>
+      </c>
+      <c r="I23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1"/>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13171</v>
+      </c>
+      <c r="C25">
+        <v>416</v>
+      </c>
+      <c r="D25">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13171</v>
+      </c>
+      <c r="F25">
+        <v>248</v>
+      </c>
+      <c r="G25">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13171</v>
+      </c>
+      <c r="I25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13169</v>
+      </c>
+      <c r="C26">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13168</v>
+      </c>
+      <c r="F26">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13170</v>
+      </c>
+      <c r="I26">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13168</v>
+      </c>
+      <c r="C27">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13172</v>
+      </c>
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13169</v>
+      </c>
+      <c r="I27">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="D28">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13170</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>56</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13168</v>
+      </c>
+      <c r="I28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="G29">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13222</v>
+      </c>
+      <c r="I29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="G30">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13172</v>
+      </c>
+      <c r="I30">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB0981-3C5B-4B09-BCC0-EE81D38B821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E306B4DE-F2F5-469A-871B-57958F90A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{7467F83C-1618-4211-B3D6-8E0451A3DBF2}"/>
+    <workbookView xWindow="1452" yWindow="2484" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{7467F83C-1618-4211-B3D6-8E0451A3DBF2}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13914" uniqueCount="13229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13919" uniqueCount="13236">
   <si>
     <t>abu</t>
   </si>
@@ -39711,15 +39711,6 @@
     <t xml:space="preserve">**# </t>
   </si>
   <si>
-    <t>Total= 1629</t>
-  </si>
-  <si>
-    <t>Total= 863</t>
-  </si>
-  <si>
-    <t>Total= 343</t>
-  </si>
-  <si>
     <t>Total= 2875</t>
   </si>
   <si>
@@ -39727,13 +39718,43 @@
   </si>
   <si>
     <t>Total= 518</t>
+  </si>
+  <si>
+    <t>uz</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>3-letters words</t>
+  </si>
+  <si>
+    <t>4-letters words</t>
+  </si>
+  <si>
+    <t>5-letters words</t>
+  </si>
+  <si>
+    <t>Vowel and Consonant pattern for each words in the datasets and its portion in the its dataset (*- Vowel, # - Consonant)</t>
+  </si>
+  <si>
+    <t>Total= 1768</t>
+  </si>
+  <si>
+    <t>Total= 935</t>
+  </si>
+  <si>
+    <t>Total= 366</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39758,6 +39779,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -39767,7 +39796,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -39775,11 +39804,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -39788,6 +39883,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -108483,8 +108609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B726A0D5-8D0F-4F94-B24F-62A9C133BD3C}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D62"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -108857,7 +108983,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>13226</v>
+        <v>13223</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -109052,7 +109178,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>13227</v>
+        <v>13224</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -109159,7 +109285,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>13228</v>
+        <v>13225</v>
       </c>
     </row>
   </sheetData>
@@ -109174,8 +109300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF0E5DB-E9DC-4DD6-A373-26E08A8FFF87}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:C57"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63:K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -109196,7 +109322,7 @@
         <v>13195</v>
       </c>
       <c r="C2">
-        <v>575</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -109207,7 +109333,7 @@
         <v>13196</v>
       </c>
       <c r="C3">
-        <v>400</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -109218,7 +109344,7 @@
         <v>13200</v>
       </c>
       <c r="C4">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -109229,7 +109355,7 @@
         <v>13187</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -109240,29 +109366,29 @@
         <v>13184</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>13201</v>
+        <v>13194</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>13194</v>
+        <v>13201</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -109273,7 +109399,7 @@
         <v>13203</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -109298,7 +109424,7 @@
         <v>13185</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -109309,7 +109435,7 @@
         <v>13193</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -109320,7 +109446,7 @@
         <v>13199</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -109331,15 +109457,15 @@
         <v>13197</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>13188</v>
+        <v>13183</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -109347,13 +109473,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>13183</v>
+        <v>13188</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -109548,7 +109674,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>13223</v>
+        <v>13233</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -109567,7 +109693,7 @@
         <v>13215</v>
       </c>
       <c r="C36">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -109578,7 +109704,7 @@
         <v>13218</v>
       </c>
       <c r="C37">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -109589,7 +109715,7 @@
         <v>13216</v>
       </c>
       <c r="C38">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -109600,7 +109726,7 @@
         <v>13210</v>
       </c>
       <c r="C39">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -109611,7 +109737,7 @@
         <v>13211</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -109625,7 +109751,7 @@
         <v>13214</v>
       </c>
       <c r="C41">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -109636,7 +109762,7 @@
         <v>13217</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -109743,7 +109869,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>13224</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -109762,7 +109888,7 @@
         <v>13171</v>
       </c>
       <c r="C54">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -109773,7 +109899,7 @@
         <v>13168</v>
       </c>
       <c r="C55">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -109784,7 +109910,7 @@
         <v>13172</v>
       </c>
       <c r="C56">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -109795,7 +109921,7 @@
         <v>13170</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -109809,7 +109935,7 @@
         <v>13169</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -109850,7 +109976,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>13225</v>
+        <v>13235</v>
       </c>
     </row>
   </sheetData>
@@ -109865,7 +109991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E967C5C9-09B5-49EC-9879-780EA8D07084}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A54" sqref="A54:D59"/>
     </sheetView>
   </sheetViews>
@@ -110554,626 +110680,975 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A579E05D-0777-4113-9735-FB7894558B2D}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+    <row r="1" spans="1:12" ht="54.6" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>13232</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1">
+      <c r="B2" s="11" t="s">
+        <v>13226</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="11" t="s">
+        <v>13227</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="13" t="s">
+        <v>13228</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1">
+      <c r="A3" s="14" t="s">
+        <v>13231</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>13195</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>1417</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="6">
+        <f>C4/2875</f>
+        <v>0.49286956521739128</v>
+      </c>
+      <c r="E4">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" t="s">
         <v>13195</v>
       </c>
-      <c r="F2">
-        <v>575</v>
-      </c>
-      <c r="G2">
+      <c r="G4">
+        <v>631</v>
+      </c>
+      <c r="H4" s="6">
+        <f>all!G4/1768</f>
+        <v>0.35690045248868779</v>
+      </c>
+      <c r="I4">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J4" t="s">
         <v>13195</v>
       </c>
-      <c r="I2">
+      <c r="K4">
         <v>536</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="L4" s="5">
+        <f>K4/2499</f>
+        <v>0.2144857943177271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>13196</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>634</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="6">
+        <f t="shared" ref="D5:D10" si="0">C5/2875</f>
+        <v>0.2205217391304348</v>
+      </c>
+      <c r="E5">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F5" t="s">
         <v>13196</v>
       </c>
-      <c r="F3">
-        <v>400</v>
-      </c>
-      <c r="G3">
+      <c r="G5">
+        <v>427</v>
+      </c>
+      <c r="H5" s="6">
+        <f>all!G5/1768</f>
+        <v>0.2415158371040724</v>
+      </c>
+      <c r="I5">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J5" t="s">
         <v>13201</v>
       </c>
-      <c r="I3">
+      <c r="K5">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="L5" s="5">
+        <f t="shared" ref="L5:L17" si="1">K5/2499</f>
+        <v>0.12885154061624648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>13187</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>434</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15095652173913043</v>
+      </c>
+      <c r="E6">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F6" t="s">
         <v>13200</v>
       </c>
-      <c r="F4">
-        <v>248</v>
-      </c>
-      <c r="G4">
+      <c r="G6">
+        <v>257</v>
+      </c>
+      <c r="H6" s="6">
+        <f>all!G6/1768</f>
+        <v>0.14536199095022626</v>
+      </c>
+      <c r="I6">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J6" t="s">
         <v>13197</v>
       </c>
-      <c r="I4">
+      <c r="K6">
         <v>284</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="L6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1136454581832733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>13184</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.9913043478260869E-2</v>
+      </c>
+      <c r="E7">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F7" t="s">
         <v>13187</v>
       </c>
-      <c r="F5">
-        <v>111</v>
-      </c>
-      <c r="G5">
+      <c r="G7">
+        <v>122</v>
+      </c>
+      <c r="H7" s="6">
+        <f>all!G7/1768</f>
+        <v>6.9004524886877833E-2</v>
+      </c>
+      <c r="I7">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J7" t="s">
         <v>13196</v>
       </c>
-      <c r="I5">
+      <c r="K7">
         <v>277</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11084433773509404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>13201</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>68</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>2.365217391304348E-2</v>
+      </c>
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F8" t="s">
         <v>13184</v>
       </c>
-      <c r="F6">
-        <v>74</v>
-      </c>
-      <c r="G6">
+      <c r="G8">
+        <v>86</v>
+      </c>
+      <c r="H8" s="6">
+        <f>all!G8/1768</f>
+        <v>4.8642533936651584E-2</v>
+      </c>
+      <c r="I8">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J8" t="s">
         <v>13193</v>
       </c>
-      <c r="I6">
+      <c r="K8">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>8.4433773509403759E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>13188</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>49</v>
       </c>
-      <c r="D7">
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7043478260869566E-2</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13194</v>
+      </c>
+      <c r="G9">
+        <v>61</v>
+      </c>
+      <c r="H9" s="6">
+        <f>all!G9/1768</f>
+        <v>3.4502262443438916E-2</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13200</v>
+      </c>
+      <c r="K9">
+        <v>156</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>6.2424969987995196E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13185</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6695652173913042E-2</v>
+      </c>
+      <c r="E10">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F10" t="s">
         <v>13201</v>
       </c>
-      <c r="F7">
-        <v>53</v>
-      </c>
-      <c r="G7">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13200</v>
-      </c>
-      <c r="I7">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
+      <c r="G10">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6">
+        <f>all!G10/1768</f>
+        <v>3.1674208144796379E-2</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13199</v>
+      </c>
+      <c r="K10">
+        <v>151</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="1"/>
+        <v>6.042416966786715E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="6"/>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13203</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6">
+        <f>all!G11/1768</f>
+        <v>1.8099547511312219E-2</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13187</v>
+      </c>
+      <c r="K11">
+        <v>126</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0420168067226892E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="6"/>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13192</v>
+      </c>
+      <c r="G12">
+        <v>27</v>
+      </c>
+      <c r="H12" s="6">
+        <f>all!G12/1768</f>
+        <v>1.5271493212669683E-2</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13184</v>
+      </c>
+      <c r="K12">
+        <v>85</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4013605442176874E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J13" t="s">
         <v>13185</v>
       </c>
-      <c r="C8">
+      <c r="K13">
+        <v>73</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9211684673869549E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13192</v>
+      </c>
+      <c r="K14">
+        <v>66</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6410564225690276E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13194</v>
+      </c>
+      <c r="K15">
+        <v>42</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="1"/>
+        <v>1.680672268907563E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13183</v>
+      </c>
+      <c r="K16">
+        <v>34</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3605442176870748E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="D17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13179</v>
+      </c>
+      <c r="K17">
+        <v>31</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2404961984793917E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1">
+      <c r="A18" s="14" t="s">
+        <v>13230</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13216</v>
+      </c>
+      <c r="C19">
+        <v>351</v>
+      </c>
+      <c r="D19" s="6">
+        <f>C19/1165</f>
+        <v>0.3012875536480687</v>
+      </c>
+      <c r="E19">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13215</v>
+      </c>
+      <c r="G19">
+        <v>383</v>
+      </c>
+      <c r="H19" s="6">
+        <f>G19/935</f>
+        <v>0.40962566844919784</v>
+      </c>
+      <c r="I19">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13216</v>
+      </c>
+      <c r="K19">
+        <v>919</v>
+      </c>
+      <c r="L19" s="5">
+        <f>K19/2499</f>
+        <v>0.36774709883953582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13215</v>
+      </c>
+      <c r="C20">
+        <v>309</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:D23" si="2">C20/1165</f>
+        <v>0.26523605150214591</v>
+      </c>
+      <c r="E20">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13218</v>
+      </c>
+      <c r="G20">
+        <v>207</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" ref="H20:H23" si="3">G20/935</f>
+        <v>0.22139037433155082</v>
+      </c>
+      <c r="I20">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13215</v>
+      </c>
+      <c r="K20">
+        <v>549</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" ref="L20:L25" si="4">K20/2499</f>
+        <v>0.21968787515006002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13210</v>
+      </c>
+      <c r="C21">
+        <v>259</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.22231759656652361</v>
+      </c>
+      <c r="E21">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13216</v>
+      </c>
+      <c r="G21">
+        <v>140</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="3"/>
+        <v>0.1497326203208556</v>
+      </c>
+      <c r="I21">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13214</v>
+      </c>
+      <c r="K21">
+        <v>393</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15726290516206481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13211</v>
+      </c>
+      <c r="C22">
+        <v>126</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="2"/>
+        <v>0.10815450643776824</v>
+      </c>
+      <c r="E22">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13210</v>
+      </c>
+      <c r="G22">
+        <v>102</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="I22">
+        <v>49</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13218</v>
+      </c>
+      <c r="K22">
+        <v>304</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.12164865946378552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13218</v>
+      </c>
+      <c r="C23">
+        <v>82</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0386266094420599E-2</v>
+      </c>
+      <c r="E23">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13211</v>
+      </c>
+      <c r="G23">
+        <v>52</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="3"/>
+        <v>5.5614973262032089E-2</v>
+      </c>
+      <c r="I23">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13210</v>
+      </c>
+      <c r="K23">
+        <v>106</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="4"/>
+        <v>4.2416966786714687E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="D24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13211</v>
+      </c>
+      <c r="K24">
+        <v>62</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4809923969587835E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="D25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25">
         <v>48</v>
       </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13194</v>
-      </c>
-      <c r="F8">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13199</v>
-      </c>
-      <c r="I8">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="D9">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13203</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13187</v>
-      </c>
-      <c r="I9">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13192</v>
-      </c>
-      <c r="F10">
-        <v>27</v>
-      </c>
-      <c r="G10">
+      <c r="J25" t="s">
+        <v>13217</v>
+      </c>
+      <c r="K25">
+        <v>47</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8807523009203683E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>13229</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13171</v>
+      </c>
+      <c r="C27">
+        <v>416</v>
+      </c>
+      <c r="D27" s="6">
+        <f>C27/518</f>
+        <v>0.80308880308880304</v>
+      </c>
+      <c r="E27">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13171</v>
+      </c>
+      <c r="G27">
+        <v>260</v>
+      </c>
+      <c r="H27" s="6">
+        <f>G27/366</f>
+        <v>0.7103825136612022</v>
+      </c>
+      <c r="I27">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13171</v>
+      </c>
+      <c r="K27">
+        <v>608</v>
+      </c>
+      <c r="L27" s="5">
+        <f>K27/1026</f>
+        <v>0.59259259259259256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13169</v>
+      </c>
+      <c r="C28">
+        <v>52</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" ref="D28:D29" si="5">C28/518</f>
+        <v>0.10038610038610038</v>
+      </c>
+      <c r="E28">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13168</v>
+      </c>
+      <c r="G28">
+        <v>55</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" ref="H28:H30" si="6">G28/366</f>
+        <v>0.15027322404371585</v>
+      </c>
+      <c r="I28">
+        <v>58</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13170</v>
+      </c>
+      <c r="K28">
+        <v>137</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" ref="L28:L32" si="7">K28/1026</f>
+        <v>0.13352826510721247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13168</v>
+      </c>
+      <c r="C29">
+        <v>47</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="5"/>
+        <v>9.0733590733590733E-2</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13172</v>
+      </c>
+      <c r="G29">
+        <v>26</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="6"/>
+        <v>7.1038251366120214E-2</v>
+      </c>
+      <c r="I29">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13169</v>
+      </c>
+      <c r="K29">
+        <v>97</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" si="7"/>
+        <v>9.454191033138401E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="D30" s="6"/>
+      <c r="E30">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13170</v>
+      </c>
+      <c r="G30">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
-        <v>13184</v>
-      </c>
-      <c r="I10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="G11">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13185</v>
-      </c>
-      <c r="I11">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="G12">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13192</v>
-      </c>
-      <c r="I12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="G13">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13194</v>
-      </c>
-      <c r="I13">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13183</v>
-      </c>
-      <c r="I14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13179</v>
-      </c>
-      <c r="I15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13216</v>
-      </c>
-      <c r="C17">
-        <v>351</v>
-      </c>
-      <c r="D17">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13215</v>
-      </c>
-      <c r="F17">
-        <v>365</v>
-      </c>
-      <c r="G17">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13216</v>
-      </c>
-      <c r="I17">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13215</v>
-      </c>
-      <c r="C18">
-        <v>309</v>
-      </c>
-      <c r="D18">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13218</v>
-      </c>
-      <c r="F18">
-        <v>191</v>
-      </c>
-      <c r="G18">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13215</v>
-      </c>
-      <c r="I18">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13210</v>
-      </c>
-      <c r="C19">
-        <v>259</v>
-      </c>
-      <c r="D19">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13216</v>
-      </c>
-      <c r="F19">
-        <v>128</v>
-      </c>
-      <c r="G19">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13214</v>
-      </c>
-      <c r="I19">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13211</v>
-      </c>
-      <c r="C20">
-        <v>126</v>
-      </c>
-      <c r="D20">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13210</v>
-      </c>
-      <c r="F20">
-        <v>90</v>
-      </c>
-      <c r="G20">
-        <v>49</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13218</v>
-      </c>
-      <c r="I20">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13218</v>
-      </c>
-      <c r="C21">
-        <v>82</v>
-      </c>
-      <c r="D21">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13211</v>
-      </c>
-      <c r="F21">
-        <v>49</v>
-      </c>
-      <c r="G21">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13210</v>
-      </c>
-      <c r="I21">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="G22">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13211</v>
-      </c>
-      <c r="I22">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
-      <c r="G23">
-        <v>48</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13217</v>
-      </c>
-      <c r="I23">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1"/>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13171</v>
-      </c>
-      <c r="C25">
-        <v>416</v>
-      </c>
-      <c r="D25">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13171</v>
-      </c>
-      <c r="F25">
-        <v>248</v>
-      </c>
-      <c r="G25">
-        <v>59</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13171</v>
-      </c>
-      <c r="I25">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13169</v>
-      </c>
-      <c r="C26">
-        <v>52</v>
-      </c>
-      <c r="D26">
+      <c r="H30" s="6">
+        <f t="shared" si="6"/>
+        <v>3.2786885245901641E-2</v>
+      </c>
+      <c r="I30">
         <v>56</v>
       </c>
-      <c r="E26" t="s">
+      <c r="J30" t="s">
         <v>13168</v>
       </c>
-      <c r="F26">
-        <v>52</v>
-      </c>
-      <c r="G26">
-        <v>58</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13170</v>
-      </c>
-      <c r="I26">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13168</v>
-      </c>
-      <c r="C27">
-        <v>47</v>
-      </c>
-      <c r="D27">
+      <c r="K30">
+        <v>72</v>
+      </c>
+      <c r="L30" s="5">
+        <f t="shared" si="7"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="D31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31">
+        <v>55</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13222</v>
+      </c>
+      <c r="K31">
+        <v>55</v>
+      </c>
+      <c r="L31" s="5">
+        <f t="shared" si="7"/>
+        <v>5.360623781676413E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="D32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32">
         <v>60</v>
       </c>
-      <c r="E27" t="s">
+      <c r="J32" t="s">
         <v>13172</v>
       </c>
-      <c r="F27">
-        <v>22</v>
-      </c>
-      <c r="G27">
-        <v>57</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13169</v>
-      </c>
-      <c r="I27">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="D28">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13170</v>
-      </c>
-      <c r="F28">
-        <v>9</v>
-      </c>
-      <c r="G28">
-        <v>56</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13168</v>
-      </c>
-      <c r="I28">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="G29">
-        <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13222</v>
-      </c>
-      <c r="I29">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="G30">
-        <v>60</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13172</v>
-      </c>
-      <c r="I30">
+      <c r="K32">
         <v>43</v>
       </c>
+      <c r="L32" s="5">
+        <f t="shared" si="7"/>
+        <v>4.1910331384015592E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A3:L3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>